--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arun\Learnings\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8418EB-9A29-4887-8FE1-96F2AA5A7A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5292CE-4B83-4C88-9747-10F412C22C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -71,26 +71,29 @@
     <t>Ranjith</t>
   </si>
   <si>
-    <t>https://www.netflix.com</t>
-  </si>
-  <si>
     <t>https://www.google.com</t>
   </si>
   <si>
-    <t>https://www.yahoo.com</t>
-  </si>
-  <si>
     <t>https://www.swiggy.com</t>
   </si>
   <si>
     <t>Website</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>Homepage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +115,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -183,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -195,6 +205,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,20 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,76 +513,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{ECF518F1-AE63-44FF-BEFD-55FA6FCAAB61}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{5D6215A1-9DBC-4F0B-9333-4748C542AE48}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{CBAE2298-69A9-4F47-983D-FE3E9D655DEF}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{926E9F2A-D7B4-428E-B72A-D4E2AFF1DCB3}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{ECF518F1-AE63-44FF-BEFD-55FA6FCAAB61}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5D6215A1-9DBC-4F0B-9333-4748C542AE48}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{CBAE2298-69A9-4F47-983D-FE3E9D655DEF}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{926E9F2A-D7B4-428E-B72A-D4E2AFF1DCB3}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{953F5279-F074-40FF-81EB-E798AE323BEC}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{A06D849D-6BD3-41CD-A755-0ED3567BA01D}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{7E45DC65-F9BD-4C9E-BD0A-F53A0F531A36}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{C7CB1FC8-30F4-4470-B627-A0A7B89977E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>